--- a/docs/ramaddresses.xlsx
+++ b/docs/ramaddresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\2024\arm\cam1bitprj\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546B2AE8-87F2-445B-BA7B-AFE655D19969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14F604-D741-43EC-9F10-58DC8E94678B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="975" windowWidth="15330" windowHeight="13635" xr2:uid="{106E7DE8-306C-468D-A89B-E2E35F76F706}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="24300" windowHeight="12585" xr2:uid="{106E7DE8-306C-468D-A89B-E2E35F76F706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3066BD-4CA0-4BF8-8263-400DEB2D0388}">
-  <dimension ref="B3:G33"/>
+  <dimension ref="B3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F5:F29"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,12 +468,12 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -510,12 +510,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1600</v>
+      </c>
+      <c r="L7">
+        <v>1200</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f>K7*L7*M7</f>
+        <v>3840000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -527,8 +540,23 @@
         <f>HEX2DEC(C8)</f>
         <v>536870912</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>K7/2</f>
+        <v>800</v>
+      </c>
+      <c r="L8">
+        <f>L7/2</f>
+        <v>600</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <f>K8*L8*M8</f>
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -551,13 +579,43 @@
       <c r="G9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>K8/2</f>
+        <v>400</v>
+      </c>
+      <c r="L9">
+        <f>L8/2</f>
+        <v>300</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f>K9*L9*M9</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>320</v>
+      </c>
+      <c r="L10">
+        <v>240</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f>K10*L10*M10</f>
+        <v>153600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -570,7 +628,7 @@
         <v>603979776</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -594,12 +652,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>

--- a/docs/ramaddresses.xlsx
+++ b/docs/ramaddresses.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\2024\arm\cam1bitprj\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14F604-D741-43EC-9F10-58DC8E94678B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD8C6F-4E47-4C13-88E4-63108482A461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="24300" windowHeight="12585" xr2:uid="{106E7DE8-306C-468D-A89B-E2E35F76F706}"/>
+    <workbookView xWindow="4065" yWindow="1440" windowWidth="24300" windowHeight="12585" activeTab="2" xr2:uid="{106E7DE8-306C-468D-A89B-E2E35F76F706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="timercalc" sheetId="2" r:id="rId2"/>
+    <sheet name="lcd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>0x00000000 -</t>
   </si>
@@ -106,6 +108,45 @@
   </si>
   <si>
     <t>backup sram</t>
+  </si>
+  <si>
+    <t>timer clock</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>prescaler</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>res clcok</t>
+  </si>
+  <si>
+    <t>MHZ</t>
+  </si>
+  <si>
+    <t>khz</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>lcd clock cycle</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>fps</t>
   </si>
 </sst>
 </file>
@@ -459,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3066BD-4CA0-4BF8-8263-400DEB2D0388}">
   <dimension ref="B3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -865,4 +906,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D18707-598C-41BE-BB08-2BE8CD330A8D}">
+  <dimension ref="C2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>1/D2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <f>D2/D4/D5</f>
+        <v>3.0518043793392844E-4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>D7*1000</f>
+        <v>0.30518043793392846</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>D8*1000</f>
+        <v>305.18043793392849</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF22DA-D930-420E-9841-D486D82CCBD8}">
+  <dimension ref="C4:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>D4/1000</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>1/D5</f>
+        <v>15.15151515151515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>160</v>
+      </c>
+      <c r="G9">
+        <f>1/G8</f>
+        <v>0.08</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>D12*G9</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>D8*D9*D10</f>
+        <v>25600</v>
+      </c>
+      <c r="G11">
+        <f>G10/1000</f>
+        <v>16.384</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>D11*8</f>
+        <v>204800</v>
+      </c>
+      <c r="G12">
+        <f>1/G11*1000</f>
+        <v>61.03515625</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>D12*D5</f>
+        <v>13516.800000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>D13/1000</f>
+        <v>13.516800000000002</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>1/D14*1000</f>
+        <v>73.982007575757564</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>